--- a/input/pyxl-chart.xlsx
+++ b/input/pyxl-chart.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BarChart" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PieChart" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LineChart" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,14 +18,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +53,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -238,6 +246,171 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="15"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Line Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'LineChart'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'LineChart'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'LineChart'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'LineChart'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'LineChart'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'LineChart'!$D$2:$D$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Test Number</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -272,6 +445,33 @@
       <col>3</col>
       <colOff>0</colOff>
       <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -715,4 +915,130 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Luna 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Luna 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Luna 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B6" t="n">
+        <v>55</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>